--- a/releases/1.0/Template.xlsx
+++ b/releases/1.0/Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Projects\StravaBulkImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Projects\StravaBulkImport\Git\releases\1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33000" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Entries" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Current bug only allows whole numbers</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -95,13 +109,16 @@
     <t>Home Worsley Roundabout</t>
   </si>
   <si>
-    <t>Distance (miles)</t>
-  </si>
-  <si>
-    <t>Elevation (feet)</t>
-  </si>
-  <si>
     <t>Time of day</t>
+  </si>
+  <si>
+    <t>Generated by the Strava Bulk Upload Tool</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Elevation</t>
   </si>
 </sst>
 </file>
@@ -111,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +183,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,35 +310,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -450,6 +445,35 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -493,20 +517,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="11"/>
-    <tableColumn id="11" name="Time of day" dataDxfId="10"/>
-    <tableColumn id="9" name="Duration" dataDxfId="9"/>
-    <tableColumn id="2" name="Title" dataDxfId="8"/>
-    <tableColumn id="4" name="Distance (miles)" dataDxfId="7"/>
-    <tableColumn id="5" name="Type" dataDxfId="6"/>
-    <tableColumn id="10" name="Elevation (feet)" dataDxfId="5"/>
-    <tableColumn id="6" name="Shoes ID / Bike ID" dataDxfId="4">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[Type]]= "Run", 1796635, IF(Table1[[#This Row],[Type]] = "Ride", 4596629, ""))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="Description" dataDxfId="3"/>
-    <tableColumn id="8" name="Private" dataDxfId="2"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="11" name="Time of day" dataDxfId="8"/>
+    <tableColumn id="9" name="Duration" dataDxfId="7"/>
+    <tableColumn id="2" name="Title" dataDxfId="6"/>
+    <tableColumn id="4" name="Distance" dataDxfId="5"/>
+    <tableColumn id="5" name="Type" dataDxfId="4"/>
+    <tableColumn id="10" name="Elevation" dataDxfId="2"/>
+    <tableColumn id="6" name="Shoes ID / Bike ID" dataDxfId="0"/>
+    <tableColumn id="7" name="Description" dataDxfId="1"/>
+    <tableColumn id="8" name="Private" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,7 +834,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -834,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>8</v>
@@ -843,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>3</v>
@@ -883,13 +905,14 @@
       <c r="G2" s="21">
         <v>0</v>
       </c>
-      <c r="H2" s="14">
-        <f>IF(Table1[[#This Row],[Type]]= "Run", 1796635, IF(Table1[[#This Row],[Type]] = "Ride", 4596629, ""))</f>
+      <c r="H2" s="1">
         <v>1796635</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="J2" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1">
@@ -914,10 +937,7 @@
       <c r="G3" s="21">
         <v>0</v>
       </c>
-      <c r="H3" s="14">
-        <f>IF(Table1[[#This Row],[Type]]= "Run", 1796635, IF(Table1[[#This Row],[Type]] = "Ride", 4596629, ""))</f>
-        <v>1796635</v>
-      </c>
+      <c r="H3" s="14"/>
       <c r="I3" s="11"/>
       <c r="J3" s="13">
         <v>1</v>
@@ -945,10 +965,7 @@
       <c r="G4" s="21">
         <v>0</v>
       </c>
-      <c r="H4" s="14">
-        <f>IF(Table1[[#This Row],[Type]]= "Run", 1796635, IF(Table1[[#This Row],[Type]] = "Ride", 4596629, ""))</f>
-        <v>1796635</v>
-      </c>
+      <c r="H4" s="14"/>
       <c r="I4" s="11"/>
       <c r="J4" s="13">
         <v>1</v>
